--- a/backend/helpline_queries_v2.xlsx
+++ b/backend/helpline_queries_v2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,114 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-05-26 21:05:10</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Abhinab Kumar</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>123456X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Name: Abhinab Kumar, Application ID: 123456X, unable to upload document on the portal</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-05-26 22:43:48</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Abhinabbb</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1234Z</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Name: Abhinabbb , Application ID: 1234Z, Query: Unable to Upload documents o the portal</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-05-26 22:48:20</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Abhinabii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10500Z</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Name: Abhinabii, Application ID: 10500Z, unable to upload documents on the portal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-05-26 23:25:14</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Abhinnnnnn</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>541X</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Name: Abhinnnnnn, Application ID: 541X, Query: Unable to upload documents in the portal</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/helpline_queries_v2.xlsx
+++ b/backend/helpline_queries_v2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,6 +583,87 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-06-04 14:41:31</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Abhinab Kumar</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9898999999</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Name: Abhinab Kumar, Mobile Number: 9898999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-06-04 14:53:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Abhi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8972632111</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Name: Abhi , Mobile Number : 8972632111</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-06-04 14:54:24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Abhinab</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3456</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Name: Abhinab , Application ID: 3456</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/helpline_queries_v2.xlsx
+++ b/backend/helpline_queries_v2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,6 +664,114 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-06-04 15:05:17</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Abhinab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>45342</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Name: Abhinab, Application ID: 45342</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-06-04 15:07:55</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ABhinab kumar</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9386776366</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Name: ABhinab kumar, Mobile Number: 9386776366, query regarding second tranche</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-06-04 15:23:55</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Abhinab Kumar</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>89877</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>unable to upload documents on the portal. Name: Abhinab Kumar, application ID: 89877</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-06-04 15:52:46</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Abhinab</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Unable to open portal, Name: Abhinab, Application ID: 1765</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
